--- a/snowy-plugin/snowy-plugin-sys/src/main/resources/userImportTemplate.xlsx
+++ b/snowy-plugin/snowy-plugin-sys/src/main/resources/userImportTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XuYuXiangPC\Project\other\snowy2\gitee\snowy\snowy-plugin\snowy-plugin-sys\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E799F9-7897-4D1B-8E77-48D2495C47FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14A8624-32F9-4B1E-BC2E-66F1B6F51B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小诺科技有限公司-工会办公室-部门经理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zhangsan@foxmail.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -136,11 +132,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>部门经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>填表说明：
-1.严禁对表格的列顺序、表头等进行修改，否则会导入失败
+1.严禁对表格的列顺序、表头等进行修改，否则会导入失败，必填字段存在空值则该行数据不会被导入
 2.红色为必填且不能重复字段，如果该字段在Excel中有重复，或该字段在数据库中有重复，则原有数据会被覆盖更新
 3.黄色为必填字段，请按照格式填写，组织和职位如果在数据库中不存在，则会被创建
-4.蓝色为非必填字段，如果填写且与数据库中有重复，则该字段不会被导入
+4.蓝色为非必填字段，如果填写且与数据库中有重复，则该行数据的该字段不会被导入
 5.绿色为非必填字段，系统根据填写内容直接导入到数据库</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,30 +254,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,151 +608,181 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="16" width="6" customWidth="1"/>
-    <col min="17" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="23" width="12" customWidth="1"/>
-    <col min="24" max="26" width="6" customWidth="1"/>
-    <col min="27" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="31" width="21" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22" style="6" customWidth="1"/>
+    <col min="7" max="10" width="12" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="6" customWidth="1"/>
+    <col min="12" max="13" width="6" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12" style="6" customWidth="1"/>
+    <col min="15" max="16" width="6" style="6" customWidth="1"/>
+    <col min="17" max="19" width="12" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18" style="6" customWidth="1"/>
+    <col min="21" max="23" width="12" style="6" customWidth="1"/>
+    <col min="24" max="26" width="6" style="6" customWidth="1"/>
+    <col min="27" max="28" width="12" style="6" customWidth="1"/>
+    <col min="29" max="29" width="15" style="6" customWidth="1"/>
+    <col min="30" max="31" width="21" style="6" customWidth="1"/>
     <col min="32" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="6" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:31" s="9" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
     </row>
     <row r="2" spans="1:31" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
